--- a/Python/Comments_R.xlsx
+++ b/Python/Comments_R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeJiWon\Desktop\OpenBCI\AAD\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hy-kist\OpenBCI\AAD\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,11 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세션 2
-'스페이스 바' 를 누르시면 세션 2 시작합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세션 3
 헷갈릴 수 있으니, 각 이야기 쌍이 제시되기 전 제공되는 
 "신호음"과 "화살표의 방향"을 잘 확인해주시기 바랍니다.
@@ -149,11 +144,6 @@
 소요시간은 약 7분 정도입니다.
 음성 자극이 제시되는 동안은 몸의 움직임을 가능한 최소화해주시고,
 시선은 화면 중앙에 고정해주시길 바랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 4
-'스페이스 바' 를 누르시면 세션 4 시작합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,11 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세션 5
-'스페이스 바' 를 누르시면 세션 5 시작합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예를 들어, 왼쪽에 제시되는 이야기에 주의를 기울여야 하는 경우,
 이야기 쌍이 제시되기 전, 왼쪽 귀에 '삐- 삐-'라는 신호음이 들릴 것입니다.
 동시에 모니터 화면 중앙에는 왼쪽 방향을 가리키는 화살표 '&lt;&lt;&lt;' 가 제시됩니다.
@@ -255,6 +240,97 @@
     <t>세션 3이 끝났습니다.
 쉬는 시간입니다.
 충분히 휴식을 취한 뒤, '스페이스 바' 를 눌러 다음으로 진행해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
+'세션 5' 에서는 이야기가 제시되는 방향이 도중에 바뀝니다.
+즉, 특정 시점 이후로 왼쪽에서 제시되던 이야기는 오른쪽에서,
+ 오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
+이야기가 제시되는 방향이 바뀌더라도 참여자분께서는 
+기존에 듣던 이야기와 같은 이야기에 계속 집중해주시면 됩니다.
+각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 실험에 대한 설명이 끝났습니다.
+준비가 되시면, '스페이스 바' 를 눌러 다음으로 진행하시면 됩니다.
+혹시나 실험 과정에 대해서 이해가 되지 않는 부분이 있거나,
+궁금한 사항이 있으시면 담당자에게 설명을 요청하시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 4가 끝났습니다.
+쉬는 시간입니다.
+충분히 휴식을 취한 뒤, '스페이스 바' 를 눌러 다음으로 진행해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 가지 신호를 통해 주의를 기울여야 할 방향을 확인하실 수 있습니다.
+양쪽 귀에 서로 다른 이야기가 제시되기 전,
+주의를 기울여야 하는 방향에 '삐- 삐-'하는 신호음이 들릴 것입니다.
+동시에 화면에는 주의를 기울여야 하는 방향이 화살표로 표시될 것입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
+'세션 1' 에서는 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다.
+'세션 2' 에서는 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다.
+각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
+'세션 3' 에서는 3번 "오른쪽"으로 제시되는 이야기에 집중한 이후,
+3번 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다. 
+'세션 4' 에서는 각 이야기 쌍 별로 집중해야 햐는 방향이 "무작위"로 바뀝니다.
+각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 1
+세션 1에서 참여자께서는 "오른쪽"으로 제시되는 이야기에 집중하여야 합니다.
+왼쪽으로 제시되는 이야기는 무시하시면 됩니다.
+이에 따라 각 이야기 쌍이 제시되기 전, 
+오른쪽 귀에는 '삐- 삐-'하는 신호음이 제공되며,
+동시에 화면 중앙에는 주의를 오른쪽 방향을 가리키는 화살표 '&gt;&gt;&gt;' 가 제시됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 2
+세션 2에서 참여자께서는 "왼쪽"으로 제시되는 이야기에 집중하여야 합니다.
+오른쪽으로 제시되는 이야기는 무시하시면 됩니다.
+이에 따라 각 이야기 쌍이 제시되기 전, 
+왼쪽 귀에는 '삐- 삐-'하는 신호음이 제공되며,
+동시에 화면 중앙에는 주의를 왼쪽 방향을 가리키는 화살표 '&lt;&lt;&lt;' 가 제시됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 3
+세션 3에서는 총 6쌍의 이야기가 제시되며, 예상 소요 시간은 약 7분입니다.
+참여자분께서는 6개의 이야기 쌍 중 
+앞 3개 (1,2,3 번)는 "오른쪽"에,
+뒤 3개 (4,5,6 번)는 "왼쪽"에 
+집중해주셔야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">참여자분께서는 제시되는 문제들에 대해서 
+최소 80% 이상의 정답률을 달성해주셔야 합니다.
+정답률 80% 미만을 달성하신 분의 뇌파 데이터는 
+이후 분석 과정에 포함될 수 없기에 사례비는 차감 지급되오니
+집중하여 들어주시기 바랍니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 1
+'스페이스 바' 를 누르시면 세션 1 이 시작됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 3
+'스페이스 바' 를 누르시면 세션 3 이 시작됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,89 +345,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세션 1
-'스페이스 바' 를 누르시면 세션 1 시작합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
-'세션 5' 에서는 이야기가 제시되는 방향이 도중에 바뀝니다.
-즉, 특정 시점 이후로 왼쪽에서 제시되던 이야기는 오른쪽에서,
- 오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
-이야기가 제시되는 방향이 바뀌더라도 참여자분께서는 
-기존에 듣던 이야기와 같은 이야기에 계속 집중해주시면 됩니다.
-각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 실험에 대한 설명이 끝났습니다.
-준비가 되시면, '스페이스 바' 를 눌러 다음으로 진행하시면 됩니다.
-혹시나 실험 과정에 대해서 이해가 되지 않는 부분이 있거나,
-궁금한 사항이 있으시면 담당자에게 설명을 요청하시기 바랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 4가 끝났습니다.
-쉬는 시간입니다.
-충분히 휴식을 취한 뒤, '스페이스 바' 를 눌러 다음으로 진행해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 가지 신호를 통해 주의를 기울여야 할 방향을 확인하실 수 있습니다.
-양쪽 귀에 서로 다른 이야기가 제시되기 전,
-주의를 기울여야 하는 방향에 '삐- 삐-'하는 신호음이 들릴 것입니다.
-동시에 화면에는 주의를 기울여야 하는 방향이 화살표로 표시될 것입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
-'세션 1' 에서는 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다.
-'세션 2' 에서는 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다.
-각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
-'세션 3' 에서는 3번 "오른쪽"으로 제시되는 이야기에 집중한 이후,
-3번 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다. 
-'세션 4' 에서는 각 이야기 쌍 별로 집중해야 햐는 방향이 "무작위"로 바뀝니다.
-각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 1
-세션 1에서 참여자께서는 "오른쪽"으로 제시되는 이야기에 집중하여야 합니다.
-왼쪽으로 제시되는 이야기는 무시하시면 됩니다.
-이에 따라 각 이야기 쌍이 제시되기 전, 
-오른쪽 귀에는 '삐- 삐-'하는 신호음이 제공되며,
-동시에 화면 중앙에는 주의를 오른쪽 방향을 가리키는 화살표 '&gt;&gt;&gt;' 가 제시됩니다.</t>
+    <t>세션 5
+'스페이스 바' 를 누르시면 세션 5 가 시작됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 4
+'스페이스 바' 를 누르시면 세션 4 가 시작됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세션 2
-세션 2에서 참여자께서는 "왼쪽"으로 제시되는 이야기에 집중하여야 합니다.
-오른쪽으로 제시되는 이야기는 무시하시면 됩니다.
-이에 따라 각 이야기 쌍이 제시되기 전, 
-왼쪽 귀에는 '삐- 삐-'하는 신호음이 제공되며,
-동시에 화면 중앙에는 주의를 왼쪽 방향을 가리키는 화살표 '&lt;&lt;&lt;' 가 제시됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 3
-세션 3에서는 총 6쌍의 이야기가 제시되며, 예상 소요 시간은 약 7분입니다.
-참여자분께서는 6개의 이야기 쌍 중 
-앞 3개 (1,2,3 번)는 "오른쪽"에,
-뒤 3개 (4,5,6 번)는 "왼쪽"에 
-집중해주셔야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">참여자분께서는 제시되는 문제들에 대해서 
-최소 80% 이상의 정답률을 달성해주셔야 합니다.
-정답률 80% 미만을 달성하신 분의 뇌파 데이터는 
-이후 분석 과정에 포함될 수 없기에 사례비는 차감 지급되오니
-집중하여 들어주시기 바랍니다.
-</t>
+'스페이스 바' 를 누르시면 세션 2 가 시작됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +720,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -766,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="261" x14ac:dyDescent="0.4">
@@ -789,16 +794,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="348" x14ac:dyDescent="0.4">
@@ -806,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -815,13 +820,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="365.4" x14ac:dyDescent="0.4">
@@ -829,31 +834,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="243.6" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
@@ -861,13 +868,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="208.8" x14ac:dyDescent="0.4">
@@ -875,13 +882,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="174" x14ac:dyDescent="0.4">
@@ -889,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="261" x14ac:dyDescent="0.4">
@@ -903,17 +910,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="174" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
